--- a/biology/Zoologie/Gophère_polyphème/Gophère_polyphème.xlsx
+++ b/biology/Zoologie/Gophère_polyphème/Gophère_polyphème.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gopherus polyphemus
-Gopherus polyphemus est une espèce de tortues de la famille des Testudinidae[1]. En français elle est appelée Gophère polyphème ou Tortue gaufrée
+Gopherus polyphemus est une espèce de tortues de la famille des Testudinidae. En français elle est appelée Gophère polyphème ou Tortue gaufrée
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Floride, en Géorgie, en Caroline du Sud, en Alabama, au Mississippi et en Louisiane[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des États-Unis. Elle se rencontre en Floride, en Géorgie, en Caroline du Sud, en Alabama, au Mississippi et en Louisiane.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses habitats préférés sont les forêts de pins, les prairies sèches et les dunes de sable. Connue pour ses capacités d'excavation (à l'instar des autres tortues du genre Gopherus), elle y creuse des terriers pouvant atteindre 12 mètres de long et 3 mètres de profondeur. Ces terriers la protègent des aléas climatiques, des incendies de forêt ainsi que des prédateurs. Ils constituent également un refuge pour plus de 350 autres espèces animales, dont les opossums, les lapins et les serpents.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette tortue terrestre mesure de 107 à 240 mm. Elle hiberne de fin octobre à fin mars à début avril.
 Cette tortue terrestre ressemble à ses cousines aquatiques, mais ne sait en revanche pas nager.
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Lors de la parade nuptiale, le mâle tourne autour de la femelle en hochant la tête puis cherche à mordre les pattes de celle-ci pour l'immobiliser.
 La ponte a lieu généralement entre avril et juillet, avec le plus souvent de 4 à 7 œufs par ponte (record: 25). La durée d'incubation varie de 80 à 110 jours dans la nature.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La Gophère polyphème est herbivore. Elle consomme une large gamme de plantes, mais se nourrit principalement de graminées à feuilles larges et de légumineuses. Elle mange également des champignons ainsi que des fruits.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Goph%C3%A8re_polyph%C3%A8me</t>
+          <t>Gophère_polyphème</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Daudin, 1801 : Histoire Naturelle, Générale et Particulière des Reptiles; ouvrage faisant suit à l'Histoire naturelle générale et particulière, composée par Leclerc de Buffon; et rédigée par C.S. Sonnini, membre de plusieurs sociétés savantes, vol. 2, F. Dufart, Paris, p. 1-432 (texte intégral).</t>
         </is>
